--- a/FinkFramework_Data/DataTables/TestData.xlsx
+++ b/FinkFramework_Data/DataTables/TestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -47,21 +47,12 @@
     <t>color</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>drops</t>
-  </si>
-  <si>
     <t>stats</t>
   </si>
   <si>
     <t>extra</t>
   </si>
   <si>
-    <t>nested</t>
-  </si>
-  <si>
     <t>items</t>
   </si>
   <si>
@@ -86,21 +77,12 @@
     <t>Color</t>
   </si>
   <si>
-    <t>DropInfoData</t>
-  </si>
-  <si>
-    <t>DropInfoData[]</t>
-  </si>
-  <si>
     <t>Dictionary&lt;string,int&gt;</t>
   </si>
   <si>
     <t>Dictionary&lt;string,Vector3&gt;</t>
   </si>
   <si>
-    <t>Dictionary&lt;string,DropInfoData[]&gt;</t>
-  </si>
-  <si>
     <t>List&lt;int&gt;</t>
   </si>
   <si>
@@ -125,21 +107,12 @@
     <t>颜色</t>
   </si>
   <si>
-    <t>单个掉落</t>
-  </si>
-  <si>
-    <t>多个掉落</t>
-  </si>
-  <si>
     <t>属性表</t>
   </si>
   <si>
     <t>坐标表</t>
   </si>
   <si>
-    <t>多层嵌套掉落</t>
-  </si>
-  <si>
     <t>ID列表</t>
   </si>
   <si>
@@ -161,21 +134,12 @@
     <t>#FFAA33</t>
   </si>
   <si>
-    <t>{ "id":1001, "value":5 }</t>
-  </si>
-  <si>
-    <t>[ {"id":1,"value":2}, {"id":2,"value":5} ]</t>
-  </si>
-  <si>
     <t>{"atk":10,"def":5}</t>
   </si>
   <si>
     <t>{"p1":{"x":1,"y":1,"z":1},"p2":{"x":2,"y":2,"z":2}}</t>
   </si>
   <si>
-    <t>{"boss":[{"id":5,"value":9}],"elite":[{"id":2,"value":3}]}</t>
-  </si>
-  <si>
     <t>1, 3, 5, 7</t>
   </si>
   <si>
@@ -197,19 +161,10 @@
     <t>(0, 1, 0, 1)</t>
   </si>
   <si>
-    <t>{ "id":1002, "value":1 }</t>
-  </si>
-  <si>
-    <t>[ {"id":5,"value":1}, {"id":8,"value":2} ]</t>
-  </si>
-  <si>
     <t>{"atk":4,"def":1}</t>
   </si>
   <si>
     <t>{"p1":{"x":5,"y":5,"z":1}}</t>
-  </si>
-  <si>
-    <t>{"floor1":[{"id":1,"value":1}]}</t>
   </si>
   <si>
     <t>2, 4</t>
@@ -1399,10 +1354,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1416,7 +1371,7 @@
     <col min="13" max="13" width="36.8495575221239" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1447,178 +1402,133 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" ht="26.25" spans="1:10">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" ht="52.5" spans="1:13">
+    <row r="4" ht="39.4" spans="1:10">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="5" ht="52.5" spans="1:13">
+    <row r="5" ht="26.25" spans="1:10">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
